--- a/mathTransformed/HMPSTT_(2015-07-12)_51_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-12)_51_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. Science College</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S kampalapuraPiriyapattana Taluk</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>T G T G H P S DegganahalliK R Nagar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Sri Vani Vilasa Ursu Girls High SchoolNazarbad</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H P S Kudanahally</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High SchoolBettadatungaPeriyapatna</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -647,6 +682,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Sri Royal High SchoolD Saluhundi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -674,6 +714,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S KedagaK R Nagar</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -701,6 +746,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Dayananda High School Bherya K R Nagar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -728,6 +778,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>J S S High School ManuganahalliH D Kote Taluk</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -755,6 +810,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S C V D S High School Bettadapur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Pereyapatna</t>
         </is>
       </c>
@@ -782,6 +842,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S MaggeH D Kote</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -809,6 +874,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High SchoolD Salundi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -836,6 +906,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S KolathurT Narasipura</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -863,6 +938,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Sacred Heart High SchoolNaganahallyH D Kote</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -890,6 +970,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Vidya Vardhaka High SchoolMandi Mohalla</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -917,6 +1002,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>TGT G H P SBharathawadiHunsur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -944,6 +1034,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Sharadavilas High School</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -971,6 +1066,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S Devalapura</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -998,6 +1098,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt High School Antharasanthe H D Kote Taluk</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1025,6 +1130,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S Siddaramana Hundi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1052,6 +1162,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Marimallappa High School</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1079,6 +1194,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Sri Vidyadayini girls high school</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1106,6 +1226,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S N S High School GavadagereHunsur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1133,6 +1258,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S ChikkahunsurHunsurTaluk</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1160,6 +1290,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. Junior College (High School Section) Yelwala</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1187,6 +1322,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Sri Valmiki High School ChallahalliHunsur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1214,6 +1354,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. Junior College for BoysHunsur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1241,6 +1386,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G P U C Hediyala Nanjangud</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1268,6 +1418,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>M R P High SchoolAralimarada Koppal Periyapatna</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1295,6 +1450,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G G H ST Narasipura</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1322,6 +1482,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Sri MaruthiHigh School ThattekereHunsur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1349,6 +1514,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H P S Lakshmipura K R Nagar</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1376,6 +1546,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Harohally Mellahally</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1403,6 +1578,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G J C KitturPeriyapatna</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1430,6 +1610,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Sri K Puttaswamy High School Kumbarakoppal</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1458,6 +1643,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>D Kote Taluk</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t xml:space="preserve">Mysore </t>
         </is>
       </c>
@@ -1485,6 +1675,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Shree Gurumallewara High School karyaNanjfud</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1512,6 +1707,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G J C RavandurPeriyapatna</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1539,6 +1739,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. High School TadimalangiT Narasipura (tq)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1566,6 +1771,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Avila ConventHigh School</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1593,6 +1803,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S HedathaleNanjangud</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1620,6 +1835,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Govt. High SchoolVataluT Narasipura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1647,6 +1867,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S MusuvinakoppaluT N Pura</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1674,6 +1899,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Bhagini Seva Samaja High SchoolK M Puram</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1701,6 +1931,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Dayananda High School DevithandreK R Nagar</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1728,6 +1963,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S HeggadahallyNanjanagud</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1755,6 +1995,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Sri Kuvempu High School Kuvempu Nagar</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1782,6 +2027,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S HeggurT N Pura</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1809,6 +2059,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G J C Periyapettna TqHalaganahally</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1837,6 +2092,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>ManasagangothriHigh SchoolManasagangothri</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Mysore</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-07-12)_51_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-07-12)_51_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pereyapatna</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mysore </t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
